--- a/data/trans_dic/P54_A_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir una pérdida de ingresos o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir una pérdida de ingresos o ya le ha ocurrido (tasa de respuesta: 98,12%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>8,45; 18,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>0,0; 4,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>7,12; 17,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>1,22; 7,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>8,68; 16,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>1,05; 4,92</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>11,74; 27,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>18,11; 29,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>1,56; 6,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>15,86; 25,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,99; 3,57</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>13,73; 24,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,0; 9,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,32; 3,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>16,74; 25,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,84; 5,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>16,45; 23,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,38; 5,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,43; 3,76</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>9,65; 17,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,31; 3,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>20,23; 29,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,0; 4,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>16,4; 22,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,18; 1,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,87; 2,98</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>11,39; 20,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,73; 4,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>14,9; 26,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>14,63; 22,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,19; 1,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,5; 2,52</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>2,29; 9,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>4,31; 11,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 8,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,98; 9,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 5,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,22; 1,9</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>12,29; 16,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,21; 1,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,69; 1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>16,68; 20,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,3; 2,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,58; 3,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>15,15; 18,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,38; 1,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,28; 2,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir una pérdida de ingresos o ya le ha ocurrido (tasa de respuesta: 98,12%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64322</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6776</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50201</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18090</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>114523</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24866</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42514; 92870</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25391</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31436; 76473</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6188; 35949</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>81945; 156119</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10774; 50729</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>100144</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2708</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>119917</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18092</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>220061</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20800</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>65805; 153333</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12698</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>92209; 150617</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14557</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7899; 34015</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>169638; 272988</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16456</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10602; 38124</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>121520</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15484</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8650</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>136006</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23290</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>257526</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20669</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31940</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>90196; 159845</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 62783</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2124; 20923</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>111158; 168277</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18122</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13038; 40226</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>217212; 303750</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5231; 76190</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19732; 51810</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>81417</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7769</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>161368</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4489</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14027</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>242786</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9093</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21795</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>58515; 108353</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14048</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1973; 19177</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>131672; 191277</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13652</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6659; 28787</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>206182; 283026</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2322; 20918</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11274; 38678</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>77196</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9744</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>91728</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>168923</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5974</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11480</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>56397; 103214</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12161</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3631; 21296</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>67010; 120868</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11454</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9927</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>138279; 209644</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1867; 16143</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5005; 25128</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>21040</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2574</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>36393</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13708</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5612</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>57433</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13708</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8185</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9465; 39604</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13584</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21700; 55571</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 58379</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 21144</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36537; 83075</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 67522</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2574; 22346</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>465640</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>23957</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>38220</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>595613</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>28338</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>80846</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1061253</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>52295</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>119067</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>397661; 539861</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7289; 67042</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23334; 61458</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>536827; 667111</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10532; 77634</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>56075; 111293</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>977531; 1173016</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>26140; 111008</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>88631; 157858</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>